--- a/STEP2（タスク管理アプリ）/テーブル定義書/テーブル定義書.xlsx
+++ b/STEP2（タスク管理アプリ）/テーブル定義書/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7893ebd653ba6301/ドキュメント/share_kennsyu_matsunaga.yuto/STEP2（タスク管理アプリ）/テーブル定義書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{94D92B64-09D4-4894-AC4F-842C5D20B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15BF5413-3D37-4BF2-B21A-7A0CDB943DC9}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{94D92B64-09D4-4894-AC4F-842C5D20B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4DFA847-24EC-4E3B-A6BF-29E67157F594}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94226EB6-C2D9-4891-82F9-B76C7AFFA7DA}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="改訂履歴" sheetId="9" r:id="rId2"/>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId3"/>
     <sheet name="task_management.users" sheetId="5" r:id="rId4"/>
-    <sheet name="task_management.tasks" sheetId="4" r:id="rId5"/>
-    <sheet name="task_management.task_tags" sheetId="10" r:id="rId6"/>
+    <sheet name="task_management.tasks" sheetId="11" r:id="rId5"/>
+    <sheet name="task_management.task_tags" sheetId="12" r:id="rId6"/>
     <sheet name="レビュー指摘一覧" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="179">
   <si>
     <t>タスク管理アプリ</t>
     <rPh sb="3" eb="5">
@@ -119,6 +119,22 @@
   </si>
   <si>
     <t>松永</t>
+  </si>
+  <si>
+    <t>task_management.tasks
+task_management.task_tags</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>レビュー指摘対応</t>
+    <rPh sb="4" eb="8">
+      <t>シテキタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>松永</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テーブル一覧</t>
@@ -513,16 +529,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>タスク分類</t>
-    <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
     <t>タスク完了期限</t>
     <rPh sb="3" eb="7">
       <t>カンリョウキゲン</t>
@@ -570,12 +576,6 @@
   </si>
   <si>
     <t>tinyint(1)</t>
-  </si>
-  <si>
-    <t>user_no,task_name</t>
-  </si>
-  <si>
-    <t>2025/03/09 10:56:48</t>
   </si>
   <si>
     <t>なし</t>
@@ -597,6 +597,9 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>tag_no</t>
+  </si>
+  <si>
     <t>タスク分類名</t>
     <rPh sb="3" eb="6">
       <t>ブンルイメイ</t>
@@ -616,26 +619,6 @@
     <t>記載日</t>
   </si>
   <si>
-    <t>ステータス</t>
-  </si>
-  <si>
-    <t>対応日</t>
-  </si>
-  <si>
-    <t>task_management.tasksのPrimary</t>
-  </si>
-  <si>
-    <t>user_noとtask_nameで作られているが
-同じユーザーが別期間で同じタスクを作ることはないのか？
-→登録できないのであれば登録時にチェックして重複登録できないようにするべき</t>
-  </si>
-  <si>
-    <t>task_management.tasksの説明</t>
-  </si>
-  <si>
-    <t>タスク期限は日付なのにタスク完了日は日時で問題ないか？</t>
-  </si>
-  <si>
     <t>修正内容</t>
     <rPh sb="0" eb="4">
       <t>シュウセイナイヨウ</t>
@@ -643,8 +626,21 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="8"/>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>対応日</t>
+  </si>
+  <si>
+    <t>2025/3/12
+追記：
+2025/3/16</t>
+  </si>
+  <si>
+    <t>追加確認</t>
+  </si>
+  <si>
+    <t>task_management.tasksの説明</t>
   </si>
   <si>
     <t>task_management.tasksの説明の文字上限は20文字であっているのか？</t>
@@ -661,56 +657,10 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>分類のマスタテーブルを持つのであればIDつけて
-ID紐づけなどのほうが良いと個人的には思った。
-→実装上は問題ないのでどちらでも良い</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>タスク分類テーブルに主キーのタスク番号のカラムを追加しました。</t>
-    <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>tag_no</t>
-  </si>
-  <si>
-    <t>タスク番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2025/03/15</t>
-  </si>
-  <si>
-    <t>2025/03/15 12:15:25</t>
-  </si>
-  <si>
-    <t>2025/03/15</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>再レビュー中</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>タスク期限は日付なのにタスク完了日は日時で問題ないか？</t>
   </si>
   <si>
     <t>修正内容：なし。
@@ -745,79 +695,161 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>修正内容：なし。
-理由：ユーザーが詳細画面でタスク登録時に、未完了のタスクに存在するタスク名のタスクを登録しようとした場合、タスクを登録できないよう重複チェック処理を入れています。
-※別期間で同じタスクを作りたい場合は、「task1」,「task2」などタスク名が被らないようにタスクを登録してもらう想定です。</t>
+    <t xml:space="preserve">user_noとtask_nameで作られているが
+同じユーザーが別期間で同じタスクを作ることはないのか？
+→登録できないのであれば登録時にチェックして重複登録できないようにするべき
+追記：
+未完了のタスクであれば登録できないかもしれないが
+完了しているタスクに対して同じ名前の未完了タスクを作成したらどうなりますか？
+</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク分類番号</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_management.tasksのPrimary</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2025/3/12
+追記：
+2025/3/16</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>分類のマスタテーブルを持つのであればIDつけて
+ID紐づけなどのほうが良いと個人的には思った。
+→実装上は問題ないのでどちらでも良い
+追記：
+自分が言っていたのは少し異なっていてIDを付けるだけではなく
+「task_management.tasks」のタスク分類名を作成したIDで持つということですね。外部キー
+最初にどちらでも良いと言っているので対応不要であれば完了にして問題ないです。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">タスク分類テーブルに主キーの「タスク分類番号のカラム」を追加しました。
+追記：2025/3/22
+タスクテーブルの「タスク分類」を削除し、外部キーの「タスク分類番号」を追加しました。
+</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>追加確認</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2025/03/22</t>
+  </si>
+  <si>
+    <t>task_no</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>task_management.tasks_ibfk_2</t>
+  </si>
+  <si>
+    <t>32768</t>
+  </si>
+  <si>
+    <t>2025/03/22 10:12:02</t>
+  </si>
+  <si>
+    <t>タスク番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2025/03/22 10:11:57</t>
+  </si>
+  <si>
+    <t>int(11) auto_increment</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>詳細画面のタスク修正,登録時のタスク名の重複チェックを削除しました。（画面設計書の詳細画面シートを修正しています。）
+また、タスクテーブルに、新しく主キーのカラム「タスク番号」（タスクに連番で一意の番号を振るカラム）を追加しました。
+※auto_incrementの上限は、各カラムのデータ型(int)の上限「2147483647」でした。</t>
     <rPh sb="0" eb="4">
-      <t>シュウセイナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リユウ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
       <t>ショウサイガメン</t>
     </rPh>
-    <rPh sb="25" eb="28">
-      <t>トウロクジ</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
     </rPh>
-    <rPh sb="45" eb="46">
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
       <t>メイ</t>
     </rPh>
-    <rPh sb="51" eb="53">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="74" eb="76">
+    <rPh sb="20" eb="22">
       <t>チョウフク</t>
     </rPh>
-    <rPh sb="80" eb="82">
-      <t>ショリ</t>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
     </rPh>
-    <rPh sb="83" eb="84">
-      <t>イ</t>
+    <rPh sb="35" eb="40">
+      <t>ガメンセッケイショ</t>
     </rPh>
-    <rPh sb="92" eb="95">
-      <t>ベツキカン</t>
+    <rPh sb="41" eb="45">
+      <t>ショウサイガメン</t>
     </rPh>
-    <rPh sb="96" eb="97">
-      <t>オナ</t>
+    <rPh sb="49" eb="51">
+      <t>シュウセイ</t>
     </rPh>
-    <rPh sb="102" eb="103">
-      <t>ツク</t>
+    <rPh sb="86" eb="88">
+      <t>バンゴウ</t>
     </rPh>
-    <rPh sb="106" eb="108">
-      <t>バアイ</t>
+    <rPh sb="134" eb="136">
+      <t>ジョウゲン</t>
     </rPh>
-    <rPh sb="130" eb="131">
-      <t>メイ</t>
+    <rPh sb="138" eb="139">
+      <t>カク</t>
     </rPh>
-    <rPh sb="132" eb="133">
-      <t>カブ</t>
+    <rPh sb="146" eb="147">
+      <t>ガタ</t>
     </rPh>
-    <rPh sb="143" eb="145">
-      <t>トウロク</t>
+    <rPh sb="153" eb="155">
+      <t>ジョウゲン</t>
     </rPh>
-    <rPh sb="150" eb="152">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>task_management.tasks
-task_management.task_tags</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>レビュー指摘対応</t>
-    <rPh sb="4" eb="8">
-      <t>シテキタイオウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>松永</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1874,7 +1906,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2135,6 +2167,48 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2195,46 +2269,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3828,7 +3878,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="18"/>
@@ -3903,7 +3953,7 @@
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:28" ht="40.799999999999997" customHeight="1">
+    <row r="5" spans="1:28" ht="40.950000000000003" customHeight="1">
       <c r="A5" s="55"/>
       <c r="B5" s="64">
         <v>1.1000000000000001</v>
@@ -3912,24 +3962,34 @@
         <v>45731</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:28" ht="66.75" customHeight="1">
       <c r="A6" s="55"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="64">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="65">
+        <v>45738</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
     </row>
@@ -4086,7 +4146,9 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15"/>
   <cols>
@@ -4097,21 +4159,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18">
@@ -4119,10 +4181,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="11"/>
     </row>
@@ -4131,10 +4193,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -4143,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -4176,9 +4238,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15"/>
   <cols>
@@ -4189,147 +4249,147 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18">
       <c r="B2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="106"/>
+        <v>27</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="120"/>
       <c r="E2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="103"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="107"/>
+        <v>30</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="121"/>
       <c r="E3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="105"/>
+        <v>32</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="119"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="107"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="121"/>
       <c r="E4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="105"/>
+      <c r="G4" s="119"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="C5" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="121"/>
       <c r="E5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="105"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="119"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="107"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="121"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
+      <c r="B7" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
+      <c r="B8" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="94"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4337,22 +4397,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4360,22 +4420,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickBot="1">
@@ -4383,48 +4443,48 @@
         <v>3</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>48</v>
-      </c>
       <c r="G16" s="32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
@@ -4432,37 +4492,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="99"/>
+        <v>64</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="113"/>
       <c r="E20" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G20" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -4473,72 +4533,72 @@
         <v>1</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="101"/>
+        <v>69</v>
+      </c>
+      <c r="D24" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="115"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" thickBot="1">
       <c r="A27" s="37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.6" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="G30" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.6" thickBot="1">
@@ -4546,63 +4606,63 @@
         <v>1</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A34" s="37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D34" s="41"/>
-      <c r="E34" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="109"/>
+      <c r="E34" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="97"/>
       <c r="G34" s="39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.6" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
@@ -4612,396 +4672,349 @@
       <c r="A38" s="42">
         <v>1</v>
       </c>
-      <c r="B38" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="117"/>
+      <c r="B38" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
     </row>
     <row r="39" spans="1:7" ht="18">
       <c r="A39" s="43">
         <v>2</v>
       </c>
-      <c r="B39" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="B39" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="89"/>
+      <c r="D39" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
     </row>
     <row r="40" spans="1:7" ht="18">
       <c r="A40" s="43">
         <v>3</v>
       </c>
-      <c r="B40" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="B40" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="89"/>
+      <c r="D40" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="91"/>
     </row>
     <row r="41" spans="1:7" ht="18">
       <c r="A41" s="43">
         <v>4</v>
       </c>
-      <c r="B41" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="B41" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="89"/>
+      <c r="D41" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="91"/>
     </row>
     <row r="42" spans="1:7" ht="18">
       <c r="A42" s="43">
         <v>5</v>
       </c>
-      <c r="B42" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="B42" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="89"/>
+      <c r="D42" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="91"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="43">
         <v>6</v>
       </c>
-      <c r="B43" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="B43" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="89"/>
+      <c r="D43" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="91"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="43">
         <v>7</v>
       </c>
-      <c r="B44" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+      <c r="B44" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="89"/>
+      <c r="D44" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="91"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="43">
         <v>8</v>
       </c>
-      <c r="B45" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="B45" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="89"/>
+      <c r="D45" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="91"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="43">
         <v>9</v>
       </c>
-      <c r="B46" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+      <c r="B46" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="89"/>
+      <c r="D46" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="91"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="43">
         <v>10</v>
       </c>
-      <c r="B47" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+      <c r="B47" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="89"/>
+      <c r="D47" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="91"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="43">
         <v>11</v>
       </c>
-      <c r="B48" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="113"/>
+      <c r="B48" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="89"/>
+      <c r="D48" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="43">
         <v>12</v>
       </c>
-      <c r="B49" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="113"/>
+      <c r="B49" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="89"/>
+      <c r="D49" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="91"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="43">
         <v>13</v>
       </c>
-      <c r="B50" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="113"/>
+      <c r="B50" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="89"/>
+      <c r="D50" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="43">
         <v>14</v>
       </c>
-      <c r="B51" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="113"/>
+      <c r="B51" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="89"/>
+      <c r="D51" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
     </row>
     <row r="52" spans="1:7" ht="18">
       <c r="A52" s="43">
         <v>15</v>
       </c>
-      <c r="B52" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="111"/>
-      <c r="D52" s="110" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="113"/>
+      <c r="B52" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="89"/>
+      <c r="D52" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
     </row>
     <row r="53" spans="1:7" ht="18">
       <c r="A53" s="43">
         <v>16</v>
       </c>
-      <c r="B53" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="113"/>
+      <c r="B53" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="89"/>
+      <c r="D53" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
     </row>
     <row r="54" spans="1:7" ht="18">
       <c r="A54" s="43">
         <v>17</v>
       </c>
-      <c r="B54" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="111"/>
-      <c r="D54" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="113"/>
+      <c r="B54" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="89"/>
+      <c r="D54" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
     </row>
     <row r="55" spans="1:7" ht="18">
       <c r="A55" s="43">
         <v>18</v>
       </c>
-      <c r="B55" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="113"/>
+      <c r="B55" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="89"/>
+      <c r="D55" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="91"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="43">
         <v>19</v>
       </c>
-      <c r="B56" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="113"/>
+      <c r="B56" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="89"/>
+      <c r="D56" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="91"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="43">
         <v>20</v>
       </c>
-      <c r="B57" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="113"/>
+      <c r="B57" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="89"/>
+      <c r="D57" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="91"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="43">
         <v>21</v>
       </c>
-      <c r="B58" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" s="111"/>
-      <c r="D58" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="113"/>
+      <c r="B58" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="89"/>
+      <c r="D58" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="91"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="43">
         <v>22</v>
       </c>
-      <c r="B59" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="113"/>
+      <c r="B59" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="89"/>
+      <c r="D59" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="91"/>
     </row>
     <row r="60" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A60" s="44">
         <v>23</v>
       </c>
-      <c r="B60" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="119"/>
-      <c r="D60" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="121"/>
+      <c r="B60" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="93"/>
+      <c r="D60" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C20:D20"/>
@@ -5016,6 +5029,53 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5028,166 +5088,164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D2F9FC-4711-4DFF-9AFD-28EF5BFACA39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB05A67-AE7F-42D6-ABD3-FAFA377BA98E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
     <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18">
       <c r="B2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="106"/>
+        <v>27</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="120"/>
       <c r="E2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="103"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="107"/>
+        <v>30</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="121"/>
       <c r="E3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="105"/>
+        <v>32</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="119"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="107"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="121"/>
       <c r="E4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" s="105"/>
+        <v>36</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="119"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="107"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="121"/>
       <c r="E5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="105"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="119"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="107"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="121"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="94"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="B7" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="B8" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="B9" s="108"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5195,45 +5253,45 @@
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>123</v>
+      <c r="B15" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>125</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5247,16 +5305,16 @@
         <v>127</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5264,22 +5322,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5287,22 +5345,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5310,22 +5368,22 @@
         <v>6</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>135</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5333,662 +5391,740 @@
         <v>7</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="E20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="45" t="s">
+      <c r="C21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="122"/>
+      <c r="E26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="123"/>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="C27" s="88" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A21" s="6">
-        <v>8</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="31" t="s">
+      <c r="D27" s="124"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="125"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="126"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="127"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A32" s="22">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="112" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="115"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="D36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="28" t="s">
+      <c r="F36" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A37" s="6">
+        <v>2</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A25" s="22">
+      <c r="D40" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A43" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="97"/>
+      <c r="G43" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="42">
         <v>1</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A29" s="22">
-        <v>1</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="101"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A33" s="22">
-        <v>1</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A35" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A36" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A38" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A39" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="109"/>
-      <c r="G39" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A41" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-    </row>
-    <row r="43" spans="1:7" ht="18">
-      <c r="A43" s="42">
-        <v>1</v>
-      </c>
-      <c r="B43" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="117"/>
-    </row>
-    <row r="44" spans="1:7" ht="18">
-      <c r="A44" s="43">
-        <v>2</v>
-      </c>
-      <c r="B44" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
-    </row>
-    <row r="45" spans="1:7" ht="18">
-      <c r="A45" s="43">
-        <v>3</v>
-      </c>
-      <c r="B45" s="110" t="s">
+      <c r="B47" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="110" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
-    </row>
-    <row r="46" spans="1:7" ht="18">
-      <c r="A46" s="43">
-        <v>4</v>
-      </c>
-      <c r="B46" s="110" t="s">
+      <c r="C47" s="99"/>
+      <c r="D47" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
-    </row>
-    <row r="47" spans="1:7" ht="18">
-      <c r="A47" s="43">
-        <v>5</v>
-      </c>
-      <c r="B47" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="101"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="43">
-        <v>6</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="113"/>
+        <v>2</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="89"/>
+      <c r="D48" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="43">
-        <v>7</v>
-      </c>
-      <c r="B49" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="113"/>
+        <v>3</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="89"/>
+      <c r="D49" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="91"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="43">
-        <v>8</v>
-      </c>
-      <c r="B50" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="113"/>
+        <v>4</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="89"/>
+      <c r="D50" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="43">
-        <v>9</v>
-      </c>
-      <c r="B51" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="113"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="89"/>
+      <c r="D51" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
     </row>
     <row r="52" spans="1:7" ht="18">
       <c r="A52" s="43">
-        <v>10</v>
-      </c>
-      <c r="B52" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="111"/>
-      <c r="D52" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="113"/>
+        <v>6</v>
+      </c>
+      <c r="B52" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="89"/>
+      <c r="D52" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
     </row>
     <row r="53" spans="1:7" ht="18">
       <c r="A53" s="43">
-        <v>11</v>
-      </c>
-      <c r="B53" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="113"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
     </row>
     <row r="54" spans="1:7" ht="18">
       <c r="A54" s="43">
-        <v>12</v>
-      </c>
-      <c r="B54" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="111"/>
-      <c r="D54" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="113"/>
+        <v>8</v>
+      </c>
+      <c r="B54" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="89"/>
+      <c r="D54" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
     </row>
     <row r="55" spans="1:7" ht="18">
       <c r="A55" s="43">
-        <v>13</v>
-      </c>
-      <c r="B55" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="113"/>
+        <v>9</v>
+      </c>
+      <c r="B55" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="89"/>
+      <c r="D55" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="91"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="43">
-        <v>14</v>
-      </c>
-      <c r="B56" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="113"/>
+        <v>10</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="89"/>
+      <c r="D56" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="91"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="43">
-        <v>15</v>
-      </c>
-      <c r="B57" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="89"/>
+      <c r="D57" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="91"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="43">
-        <v>16</v>
-      </c>
-      <c r="B58" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="111"/>
-      <c r="D58" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="113"/>
+        <v>12</v>
+      </c>
+      <c r="B58" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="89"/>
+      <c r="D58" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="91"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="43">
-        <v>17</v>
-      </c>
-      <c r="B59" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="113"/>
+        <v>13</v>
+      </c>
+      <c r="B59" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="89"/>
+      <c r="D59" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+      <c r="G59" s="91"/>
     </row>
     <row r="60" spans="1:7" ht="18">
       <c r="A60" s="43">
-        <v>18</v>
-      </c>
-      <c r="B60" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="111"/>
-      <c r="D60" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="113"/>
+        <v>14</v>
+      </c>
+      <c r="B60" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="89"/>
+      <c r="D60" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="91"/>
     </row>
     <row r="61" spans="1:7" ht="18">
       <c r="A61" s="43">
-        <v>19</v>
-      </c>
-      <c r="B61" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="113"/>
+        <v>15</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="89"/>
+      <c r="D61" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="91"/>
     </row>
     <row r="62" spans="1:7" ht="18">
       <c r="A62" s="43">
-        <v>20</v>
-      </c>
-      <c r="B62" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="111"/>
-      <c r="D62" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="113"/>
+        <v>16</v>
+      </c>
+      <c r="B62" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="89"/>
+      <c r="D62" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="91"/>
     </row>
     <row r="63" spans="1:7" ht="18">
       <c r="A63" s="43">
-        <v>21</v>
-      </c>
-      <c r="B63" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="111"/>
-      <c r="D63" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="113"/>
+        <v>17</v>
+      </c>
+      <c r="B63" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="89"/>
+      <c r="D63" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
     </row>
     <row r="64" spans="1:7" ht="18">
       <c r="A64" s="43">
+        <v>18</v>
+      </c>
+      <c r="B64" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="89"/>
+      <c r="D64" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="91"/>
+    </row>
+    <row r="65" spans="1:7" ht="18">
+      <c r="A65" s="43">
+        <v>19</v>
+      </c>
+      <c r="B65" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="89"/>
+      <c r="D65" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="91"/>
+    </row>
+    <row r="66" spans="1:7" ht="18">
+      <c r="A66" s="43">
+        <v>20</v>
+      </c>
+      <c r="B66" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="89"/>
+      <c r="D66" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="91"/>
+    </row>
+    <row r="67" spans="1:7" ht="18">
+      <c r="A67" s="43">
+        <v>21</v>
+      </c>
+      <c r="B67" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="89"/>
+      <c r="D67" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="91"/>
+    </row>
+    <row r="68" spans="1:7" ht="18">
+      <c r="A68" s="43">
         <v>22</v>
       </c>
-      <c r="B64" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="111"/>
-      <c r="D64" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="112"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="113"/>
-    </row>
-    <row r="65" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A65" s="44">
+      <c r="B68" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="89"/>
+      <c r="D68" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="91"/>
+    </row>
+    <row r="69" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A69" s="44">
         <v>23</v>
       </c>
-      <c r="B65" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="119"/>
-      <c r="D65" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="121"/>
+      <c r="B69" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="93"/>
+      <c r="D69" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
+  <mergeCells count="63">
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:G63"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:G58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6001,15 +6137,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC4F1B0-0B04-481F-BDF6-5C96DE3D20A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9721D8-3527-41BC-89B7-BD52A60715CE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6020,147 +6154,147 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18">
       <c r="B2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="106"/>
+        <v>27</v>
+      </c>
+      <c r="C2" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="120"/>
       <c r="E2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="103"/>
+      <c r="G2" s="117"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="107"/>
+        <v>30</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="121"/>
       <c r="E3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="105"/>
+        <v>32</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="119"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="107"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="121"/>
       <c r="E4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="105"/>
+        <v>36</v>
+      </c>
+      <c r="F4" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="119"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="107"/>
+        <v>17</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="121"/>
       <c r="E5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="105"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="119"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="121"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="B7" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="B8" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="B8" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="B9" s="94"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6168,22 +6302,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" thickBot="1">
@@ -6197,42 +6331,42 @@
         <v>147</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1">
@@ -6240,37 +6374,37 @@
         <v>1</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="99"/>
+        <v>64</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="113"/>
       <c r="E19" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
@@ -6281,514 +6415,537 @@
         <v>1</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="98" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="101"/>
+        <v>69</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="115"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.6" thickBot="1">
       <c r="A26" s="37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.6" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A29" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="G29" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A31" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A32" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="40" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A30" s="22">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="108" t="s">
+      <c r="G30" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="109"/>
-      <c r="G32" s="39" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A34" s="2" t="s">
+      <c r="C33" s="40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="33" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="33" t="s">
+      <c r="F33" s="97"/>
+      <c r="G33" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:7" ht="18">
-      <c r="A36" s="42">
+    </row>
+    <row r="35" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="42">
         <v>1</v>
       </c>
-      <c r="B36" s="114" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="115"/>
-      <c r="D36" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="117"/>
-    </row>
-    <row r="37" spans="1:7" ht="18">
-      <c r="A37" s="43">
-        <v>2</v>
-      </c>
-      <c r="B37" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="113"/>
+      <c r="B37" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="99"/>
+      <c r="D37" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
     <row r="38" spans="1:7" ht="18">
       <c r="A38" s="43">
-        <v>3</v>
-      </c>
-      <c r="B38" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="110" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="89"/>
+      <c r="D38" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
     </row>
     <row r="39" spans="1:7" ht="18">
       <c r="A39" s="43">
-        <v>4</v>
-      </c>
-      <c r="B39" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+        <v>3</v>
+      </c>
+      <c r="B39" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="89"/>
+      <c r="D39" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
     </row>
     <row r="40" spans="1:7" ht="18">
       <c r="A40" s="43">
-        <v>5</v>
-      </c>
-      <c r="B40" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="111"/>
-      <c r="D40" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="113"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="91"/>
     </row>
     <row r="41" spans="1:7" ht="18">
       <c r="A41" s="43">
-        <v>6</v>
-      </c>
-      <c r="B41" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="111"/>
-      <c r="D41" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="113"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="91"/>
     </row>
     <row r="42" spans="1:7" ht="18">
       <c r="A42" s="43">
-        <v>7</v>
-      </c>
-      <c r="B42" s="110" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="111"/>
-      <c r="D42" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="113"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="91"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="43">
-        <v>8</v>
-      </c>
-      <c r="B43" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="111"/>
-      <c r="D43" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="113"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="91"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="43">
-        <v>9</v>
-      </c>
-      <c r="B44" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="113"/>
+        <v>8</v>
+      </c>
+      <c r="B44" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="89"/>
+      <c r="D44" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="91"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="43">
-        <v>10</v>
-      </c>
-      <c r="B45" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="111"/>
-      <c r="D45" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="89"/>
+      <c r="D45" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="113"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="91"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="43">
-        <v>11</v>
-      </c>
-      <c r="B46" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="111"/>
-      <c r="D46" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="113"/>
+        <v>10</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="89"/>
+      <c r="D46" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="91"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="43">
-        <v>12</v>
-      </c>
-      <c r="B47" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="89"/>
+      <c r="D47" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="91"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="43">
-        <v>13</v>
-      </c>
-      <c r="B48" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="113"/>
+        <v>12</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="89"/>
+      <c r="D48" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="43">
-        <v>14</v>
-      </c>
-      <c r="B49" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="111"/>
-      <c r="D49" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="112"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="113"/>
+        <v>13</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="89"/>
+      <c r="D49" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="91"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="43">
-        <v>15</v>
-      </c>
-      <c r="B50" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="111"/>
-      <c r="D50" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="113"/>
+        <v>14</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="89"/>
+      <c r="D50" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="43">
-        <v>16</v>
-      </c>
-      <c r="B51" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="113"/>
+        <v>15</v>
+      </c>
+      <c r="B51" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="89"/>
+      <c r="D51" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
     </row>
     <row r="52" spans="1:7" ht="18">
       <c r="A52" s="43">
-        <v>17</v>
-      </c>
-      <c r="B52" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="111"/>
-      <c r="D52" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="113"/>
+        <v>16</v>
+      </c>
+      <c r="B52" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="89"/>
+      <c r="D52" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
     </row>
     <row r="53" spans="1:7" ht="18">
       <c r="A53" s="43">
-        <v>18</v>
-      </c>
-      <c r="B53" s="110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="113"/>
+        <v>17</v>
+      </c>
+      <c r="B53" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="89"/>
+      <c r="D53" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
     </row>
     <row r="54" spans="1:7" ht="18">
       <c r="A54" s="43">
-        <v>19</v>
-      </c>
-      <c r="B54" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="111"/>
-      <c r="D54" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="113"/>
+        <v>18</v>
+      </c>
+      <c r="B54" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="89"/>
+      <c r="D54" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
     </row>
     <row r="55" spans="1:7" ht="18">
       <c r="A55" s="43">
-        <v>20</v>
-      </c>
-      <c r="B55" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="113"/>
+        <v>19</v>
+      </c>
+      <c r="B55" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="89"/>
+      <c r="D55" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="91"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="43">
-        <v>21</v>
-      </c>
-      <c r="B56" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="113"/>
+        <v>20</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="89"/>
+      <c r="D56" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="91"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="43">
+        <v>21</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="89"/>
+      <c r="D57" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="91"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="43">
         <v>22</v>
       </c>
-      <c r="B57" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="113"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A58" s="44">
+      <c r="B58" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="89"/>
+      <c r="D58" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="91"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A59" s="44">
         <v>23</v>
       </c>
-      <c r="B58" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="119"/>
-      <c r="D58" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="121"/>
+      <c r="B59" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="93"/>
+      <c r="D59" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:G45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="D23:G23"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
@@ -6816,9 +6973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED2EAC-BC12-4DF6-9882-81258C8B5875}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
   <cols>
@@ -6845,7 +7000,7 @@
     <row r="2" spans="1:8">
       <c r="A2" s="50"/>
       <c r="B2" s="50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>148</v>
@@ -6857,13 +7012,13 @@
         <v>150</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="176.4" customHeight="1">
@@ -6873,94 +7028,94 @@
         <v>1</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D3" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="51">
-        <v>45728</v>
-      </c>
       <c r="F3" s="51" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H3" s="51">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="61.8" customHeight="1">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="204.75" customHeight="1">
       <c r="A4" s="50"/>
       <c r="B4" s="50">
         <f t="shared" ref="B4:B12" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="51">
-        <v>45728</v>
+        <v>166</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>165</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>168</v>
       </c>
       <c r="H4" s="51">
-        <v>45731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="36">
+        <v>45738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="46.5" customHeight="1">
       <c r="A5" s="50"/>
       <c r="B5" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="51">
         <v>45728</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H5" s="51">
         <v>45731</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72">
+    <row r="6" spans="1:8" ht="93.75" customHeight="1">
       <c r="A6" s="50"/>
       <c r="B6" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E6" s="51">
         <v>45728</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H6" s="51">
         <v>45731</v>
@@ -7060,6 +7215,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EA33B2329A96D4479E9B802CC9E5A0B5" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52d2914cf4ca7a40289baa0855df37e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf5160749d23804eda78bf15a97dfad" ns2:_="">
     <xsd:import namespace="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0"/>
@@ -7203,15 +7367,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A301478C-C350-48F6-AEDB-F20D4C58A06D}">
   <ds:schemaRefs>
@@ -7222,6 +7377,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23181FB2-10B0-4178-ACF6-8D30481152DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D16E9DA-94B1-48D4-885F-0FDA7BBF99AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7237,12 +7400,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23181FB2-10B0-4178-ACF6-8D30481152DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/STEP2（タスク管理アプリ）/テーブル定義書/テーブル定義書.xlsx
+++ b/STEP2（タスク管理アプリ）/テーブル定義書/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7893ebd653ba6301/ドキュメント/share_kennsyu_matsunaga.yuto/STEP2（タスク管理アプリ）/テーブル定義書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{94D92B64-09D4-4894-AC4F-842C5D20B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4DFA847-24EC-4E3B-A6BF-29E67157F594}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="8_{94D92B64-09D4-4894-AC4F-842C5D20B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE4980C-11E2-43C0-9384-D0CCFA86F2EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94226EB6-C2D9-4891-82F9-B76C7AFFA7DA}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{94226EB6-C2D9-4891-82F9-B76C7AFFA7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="8" r:id="rId1"/>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>is_active</t>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
   </si>
   <si>
     <t>なし</t>
@@ -850,6 +847,10 @@
     <rPh sb="153" eb="155">
       <t>ジョウゲン</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2137,6 +2138,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2167,48 +2177,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2269,22 +2237,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2799,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4240EA-7922-4B04-908C-A4225A05EE58}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="18"/>
   <cols>
@@ -3029,27 +3030,27 @@
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="80"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="83"/>
       <c r="AA7" s="55"/>
       <c r="AB7" s="55"/>
       <c r="AC7" s="55"/>
@@ -3067,25 +3068,25 @@
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
       <c r="G8" s="55"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="86"/>
       <c r="AA8" s="55"/>
       <c r="AB8" s="55"/>
       <c r="AC8" s="55"/>
@@ -3103,25 +3104,25 @@
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="86"/>
       <c r="AA9" s="55"/>
       <c r="AB9" s="55"/>
       <c r="AC9" s="55"/>
@@ -3139,25 +3140,25 @@
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
       <c r="G10" s="55"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="86"/>
       <c r="AA10" s="55"/>
       <c r="AB10" s="55"/>
       <c r="AC10" s="55"/>
@@ -3175,25 +3176,25 @@
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="86"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="89"/>
       <c r="AA11" s="55"/>
       <c r="AB11" s="55"/>
       <c r="AC11" s="55"/>
@@ -3251,19 +3252,19 @@
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
       <c r="W13" s="55"/>
       <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
@@ -3289,17 +3290,17 @@
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
       <c r="W14" s="55"/>
       <c r="X14" s="55"/>
       <c r="Y14" s="55"/>
@@ -3325,17 +3326,17 @@
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
       <c r="W15" s="55"/>
       <c r="X15" s="55"/>
       <c r="Y15" s="55"/>
@@ -4256,113 +4257,113 @@
       <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="120"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="117"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="121"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="119"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="121"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="119"/>
+      <c r="G4" s="108"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="121"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="119"/>
+      <c r="G5" s="108"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="121"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="108"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="108"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -4494,10 +4495,10 @@
       <c r="B20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="23" t="s">
         <v>55</v>
       </c>
@@ -4538,12 +4539,12 @@
       <c r="C24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="115"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" thickBot="1">
       <c r="A26" s="2" t="s">
@@ -4640,10 +4641,10 @@
         <v>83</v>
       </c>
       <c r="D34" s="41"/>
-      <c r="E34" s="96" t="s">
+      <c r="E34" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="97"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="39" t="s">
         <v>85</v>
       </c>
@@ -4672,349 +4673,396 @@
       <c r="A38" s="42">
         <v>1</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="98" t="s">
+      <c r="C38" s="118"/>
+      <c r="D38" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="101"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="120"/>
     </row>
     <row r="39" spans="1:7" ht="18">
       <c r="A39" s="43">
         <v>2</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="88" t="s">
+      <c r="C39" s="114"/>
+      <c r="D39" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
     </row>
     <row r="40" spans="1:7" ht="18">
       <c r="A40" s="43">
         <v>3</v>
       </c>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="88" t="s">
+      <c r="C40" s="114"/>
+      <c r="D40" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="91"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="116"/>
     </row>
     <row r="41" spans="1:7" ht="18">
       <c r="A41" s="43">
         <v>4</v>
       </c>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="88" t="s">
+      <c r="C41" s="114"/>
+      <c r="D41" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
     </row>
     <row r="42" spans="1:7" ht="18">
       <c r="A42" s="43">
         <v>5</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="88" t="s">
+      <c r="C42" s="114"/>
+      <c r="D42" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="91"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="43">
         <v>6</v>
       </c>
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="88" t="s">
+      <c r="C43" s="114"/>
+      <c r="D43" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="91"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="43">
         <v>7</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="88" t="s">
+      <c r="C44" s="114"/>
+      <c r="D44" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="91"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="43">
         <v>8</v>
       </c>
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="88" t="s">
+      <c r="C45" s="114"/>
+      <c r="D45" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="91"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="43">
         <v>9</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="88" t="s">
+      <c r="C46" s="114"/>
+      <c r="D46" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="91"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="43">
         <v>10</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="88" t="s">
+      <c r="C47" s="114"/>
+      <c r="D47" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="116"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="43">
         <v>11</v>
       </c>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="88" t="s">
+      <c r="C48" s="114"/>
+      <c r="D48" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="91"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="43">
         <v>12</v>
       </c>
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="88" t="s">
+      <c r="C49" s="114"/>
+      <c r="D49" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="91"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="116"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="43">
         <v>13</v>
       </c>
-      <c r="B50" s="88" t="s">
+      <c r="B50" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="88" t="s">
+      <c r="C50" s="114"/>
+      <c r="D50" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="91"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="116"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="43">
         <v>14</v>
       </c>
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="88" t="s">
+      <c r="C51" s="114"/>
+      <c r="D51" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="91"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
     </row>
     <row r="52" spans="1:7" ht="18">
       <c r="A52" s="43">
         <v>15</v>
       </c>
-      <c r="B52" s="88" t="s">
+      <c r="B52" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="88" t="s">
+      <c r="C52" s="114"/>
+      <c r="D52" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="91"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="116"/>
     </row>
     <row r="53" spans="1:7" ht="18">
       <c r="A53" s="43">
         <v>16</v>
       </c>
-      <c r="B53" s="88" t="s">
+      <c r="B53" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="88" t="s">
+      <c r="C53" s="114"/>
+      <c r="D53" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="91"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="116"/>
     </row>
     <row r="54" spans="1:7" ht="18">
       <c r="A54" s="43">
         <v>17</v>
       </c>
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88" t="s">
+      <c r="C54" s="114"/>
+      <c r="D54" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="91"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="116"/>
     </row>
     <row r="55" spans="1:7" ht="18">
       <c r="A55" s="43">
         <v>18</v>
       </c>
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="88" t="s">
+      <c r="C55" s="114"/>
+      <c r="D55" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="116"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="43">
         <v>19</v>
       </c>
-      <c r="B56" s="88" t="s">
+      <c r="B56" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="89"/>
-      <c r="D56" s="88" t="s">
+      <c r="C56" s="114"/>
+      <c r="D56" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="91"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="116"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="43">
         <v>20</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="88" t="s">
+      <c r="C57" s="114"/>
+      <c r="D57" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="91"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="116"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="43">
         <v>21</v>
       </c>
-      <c r="B58" s="88" t="s">
+      <c r="B58" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="88" t="s">
+      <c r="C58" s="114"/>
+      <c r="D58" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="91"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="116"/>
     </row>
     <row r="59" spans="1:7" ht="18">
       <c r="A59" s="43">
         <v>22</v>
       </c>
-      <c r="B59" s="88" t="s">
+      <c r="B59" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="88" t="s">
+      <c r="C59" s="114"/>
+      <c r="D59" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="91"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="116"/>
     </row>
     <row r="60" spans="1:7" ht="18.600000000000001" thickBot="1">
       <c r="A60" s="44">
         <v>23</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="93"/>
-      <c r="D60" s="92" t="s">
+      <c r="C60" s="122"/>
+      <c r="D60" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="95"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C20:D20"/>
@@ -5029,13 +5077,1852 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E34:F34"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB05A67-AE7F-42D6-ABD3-FAFA377BA98E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="109"/>
+      <c r="E2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="106"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="B4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="108"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="108"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="108"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="B7" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="B8" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="B9" s="97"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="125"/>
+      <c r="E26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="78"/>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="126"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="79"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="127"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="80"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A32" s="22">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="104"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A37" s="6">
+        <v>2</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A43" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="112"/>
+      <c r="G43" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="42">
+        <v>1</v>
+      </c>
+      <c r="B47" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="118"/>
+      <c r="D47" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="120"/>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="43">
+        <v>2</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="43">
+        <v>3</v>
+      </c>
+      <c r="B49" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="116"/>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="43">
+        <v>4</v>
+      </c>
+      <c r="B50" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="114"/>
+      <c r="D50" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="116"/>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="43">
+        <v>5</v>
+      </c>
+      <c r="B51" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="114"/>
+      <c r="D51" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="43">
+        <v>6</v>
+      </c>
+      <c r="B52" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="114"/>
+      <c r="D52" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="116"/>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="43">
+        <v>7</v>
+      </c>
+      <c r="B53" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="114"/>
+      <c r="D53" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="116"/>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="43">
+        <v>8</v>
+      </c>
+      <c r="B54" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="114"/>
+      <c r="D54" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="116"/>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="43">
+        <v>9</v>
+      </c>
+      <c r="B55" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="114"/>
+      <c r="D55" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="116"/>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="A56" s="43">
+        <v>10</v>
+      </c>
+      <c r="B56" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="114"/>
+      <c r="D56" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="116"/>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="43">
+        <v>11</v>
+      </c>
+      <c r="B57" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="114"/>
+      <c r="D57" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="116"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="43">
+        <v>12</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="114"/>
+      <c r="D58" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="116"/>
+    </row>
+    <row r="59" spans="1:7" ht="18">
+      <c r="A59" s="43">
+        <v>13</v>
+      </c>
+      <c r="B59" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="114"/>
+      <c r="D59" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="116"/>
+    </row>
+    <row r="60" spans="1:7" ht="18">
+      <c r="A60" s="43">
+        <v>14</v>
+      </c>
+      <c r="B60" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="114"/>
+      <c r="D60" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="116"/>
+    </row>
+    <row r="61" spans="1:7" ht="18">
+      <c r="A61" s="43">
+        <v>15</v>
+      </c>
+      <c r="B61" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="114"/>
+      <c r="D61" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="116"/>
+    </row>
+    <row r="62" spans="1:7" ht="18">
+      <c r="A62" s="43">
+        <v>16</v>
+      </c>
+      <c r="B62" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="114"/>
+      <c r="D62" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="116"/>
+    </row>
+    <row r="63" spans="1:7" ht="18">
+      <c r="A63" s="43">
+        <v>17</v>
+      </c>
+      <c r="B63" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="114"/>
+      <c r="D63" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="116"/>
+    </row>
+    <row r="64" spans="1:7" ht="18">
+      <c r="A64" s="43">
+        <v>18</v>
+      </c>
+      <c r="B64" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="114"/>
+      <c r="D64" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="116"/>
+    </row>
+    <row r="65" spans="1:7" ht="18">
+      <c r="A65" s="43">
+        <v>19</v>
+      </c>
+      <c r="B65" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="114"/>
+      <c r="D65" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="116"/>
+    </row>
+    <row r="66" spans="1:7" ht="18">
+      <c r="A66" s="43">
+        <v>20</v>
+      </c>
+      <c r="B66" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="114"/>
+      <c r="D66" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="116"/>
+    </row>
+    <row r="67" spans="1:7" ht="18">
+      <c r="A67" s="43">
+        <v>21</v>
+      </c>
+      <c r="B67" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="114"/>
+      <c r="D67" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="115"/>
+      <c r="F67" s="115"/>
+      <c r="G67" s="116"/>
+    </row>
+    <row r="68" spans="1:7" ht="18">
+      <c r="A68" s="43">
+        <v>22</v>
+      </c>
+      <c r="B68" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="114"/>
+      <c r="D68" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="115"/>
+      <c r="F68" s="115"/>
+      <c r="G68" s="116"/>
+    </row>
+    <row r="69" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A69" s="44">
+        <v>23</v>
+      </c>
+      <c r="B69" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="122"/>
+      <c r="D69" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="123"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9721D8-3527-41BC-89B7-BD52A60715CE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="109"/>
+      <c r="E2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="106"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="110"/>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="B4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="108"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="108"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="108"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="B7" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="B8" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="B9" s="97"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A19" s="22">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A23" s="22">
+        <v>1</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="104"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A30" s="22">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A33" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="112"/>
+      <c r="G33" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="42">
+        <v>1</v>
+      </c>
+      <c r="B37" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="120"/>
+    </row>
+    <row r="38" spans="1:7" ht="18">
+      <c r="A38" s="43">
+        <v>2</v>
+      </c>
+      <c r="B38" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="114"/>
+      <c r="D38" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="116"/>
+    </row>
+    <row r="39" spans="1:7" ht="18">
+      <c r="A39" s="43">
+        <v>3</v>
+      </c>
+      <c r="B39" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="114"/>
+      <c r="D39" s="113" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="116"/>
+    </row>
+    <row r="40" spans="1:7" ht="18">
+      <c r="A40" s="43">
+        <v>4</v>
+      </c>
+      <c r="B40" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="114"/>
+      <c r="D40" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="116"/>
+    </row>
+    <row r="41" spans="1:7" ht="18">
+      <c r="A41" s="43">
+        <v>5</v>
+      </c>
+      <c r="B41" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="43">
+        <v>6</v>
+      </c>
+      <c r="B42" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="114"/>
+      <c r="D42" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
+    </row>
+    <row r="43" spans="1:7" ht="18">
+      <c r="A43" s="43">
+        <v>7</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="116"/>
+    </row>
+    <row r="44" spans="1:7" ht="18">
+      <c r="A44" s="43">
+        <v>8</v>
+      </c>
+      <c r="B44" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="114"/>
+      <c r="D44" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="116"/>
+    </row>
+    <row r="45" spans="1:7" ht="18">
+      <c r="A45" s="43">
+        <v>9</v>
+      </c>
+      <c r="B45" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="116"/>
+    </row>
+    <row r="46" spans="1:7" ht="18">
+      <c r="A46" s="43">
+        <v>10</v>
+      </c>
+      <c r="B46" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="114"/>
+      <c r="D46" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="43">
+        <v>11</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="116"/>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="43">
+        <v>12</v>
+      </c>
+      <c r="B48" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="114"/>
+      <c r="D48" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="43">
+        <v>13</v>
+      </c>
+      <c r="B49" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="114"/>
+      <c r="D49" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="116"/>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="43">
+        <v>14</v>
+      </c>
+      <c r="B50" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="114"/>
+      <c r="D50" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="116"/>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="43">
+        <v>15</v>
+      </c>
+      <c r="B51" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="114"/>
+      <c r="D51" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="43">
+        <v>16</v>
+      </c>
+      <c r="B52" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="114"/>
+      <c r="D52" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="116"/>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="43">
+        <v>17</v>
+      </c>
+      <c r="B53" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="114"/>
+      <c r="D53" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="116"/>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="43">
+        <v>18</v>
+      </c>
+      <c r="B54" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="114"/>
+      <c r="D54" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="116"/>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="43">
+        <v>19</v>
+      </c>
+      <c r="B55" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="114"/>
+      <c r="D55" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="116"/>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="A56" s="43">
+        <v>20</v>
+      </c>
+      <c r="B56" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="114"/>
+      <c r="D56" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="116"/>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="43">
+        <v>21</v>
+      </c>
+      <c r="B57" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="114"/>
+      <c r="D57" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="116"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="43">
+        <v>22</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="114"/>
+      <c r="D58" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="116"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A59" s="44">
+        <v>23</v>
+      </c>
+      <c r="B59" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="122"/>
+      <c r="D59" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="B42:C42"/>
@@ -5068,1896 +6955,12 @@
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:G58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:G59"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB05A67-AE7F-42D6-ABD3-FAFA377BA98E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="B2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="117"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="119"/>
-    </row>
-    <row r="4" spans="1:7" ht="18">
-      <c r="B4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="119"/>
-    </row>
-    <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="119"/>
-    </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="B8" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="B9" s="108"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A22" s="6">
-        <v>9</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="123"/>
-    </row>
-    <row r="27" spans="1:7" ht="18">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="125"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A28" s="6">
-        <v>3</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="127"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A32" s="22">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="115"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="9">
-        <v>1</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="123" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A37" s="6">
-        <v>2</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A40" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A42" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A43" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="97"/>
-      <c r="G43" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A45" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" spans="1:7" ht="18">
-      <c r="A47" s="42">
-        <v>1</v>
-      </c>
-      <c r="B47" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="101"/>
-    </row>
-    <row r="48" spans="1:7" ht="18">
-      <c r="A48" s="43">
-        <v>2</v>
-      </c>
-      <c r="B48" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="91"/>
-    </row>
-    <row r="49" spans="1:7" ht="18">
-      <c r="A49" s="43">
-        <v>3</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="91"/>
-    </row>
-    <row r="50" spans="1:7" ht="18">
-      <c r="A50" s="43">
-        <v>4</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="91"/>
-    </row>
-    <row r="51" spans="1:7" ht="18">
-      <c r="A51" s="43">
-        <v>5</v>
-      </c>
-      <c r="B51" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="91"/>
-    </row>
-    <row r="52" spans="1:7" ht="18">
-      <c r="A52" s="43">
-        <v>6</v>
-      </c>
-      <c r="B52" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="91"/>
-    </row>
-    <row r="53" spans="1:7" ht="18">
-      <c r="A53" s="43">
-        <v>7</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="91"/>
-    </row>
-    <row r="54" spans="1:7" ht="18">
-      <c r="A54" s="43">
-        <v>8</v>
-      </c>
-      <c r="B54" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="91"/>
-    </row>
-    <row r="55" spans="1:7" ht="18">
-      <c r="A55" s="43">
-        <v>9</v>
-      </c>
-      <c r="B55" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
-    </row>
-    <row r="56" spans="1:7" ht="18">
-      <c r="A56" s="43">
-        <v>10</v>
-      </c>
-      <c r="B56" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="89"/>
-      <c r="D56" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="91"/>
-    </row>
-    <row r="57" spans="1:7" ht="18">
-      <c r="A57" s="43">
-        <v>11</v>
-      </c>
-      <c r="B57" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="91"/>
-    </row>
-    <row r="58" spans="1:7" ht="18">
-      <c r="A58" s="43">
-        <v>12</v>
-      </c>
-      <c r="B58" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="91"/>
-    </row>
-    <row r="59" spans="1:7" ht="18">
-      <c r="A59" s="43">
-        <v>13</v>
-      </c>
-      <c r="B59" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="91"/>
-    </row>
-    <row r="60" spans="1:7" ht="18">
-      <c r="A60" s="43">
-        <v>14</v>
-      </c>
-      <c r="B60" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-      <c r="G60" s="91"/>
-    </row>
-    <row r="61" spans="1:7" ht="18">
-      <c r="A61" s="43">
-        <v>15</v>
-      </c>
-      <c r="B61" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="89"/>
-      <c r="D61" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="91"/>
-    </row>
-    <row r="62" spans="1:7" ht="18">
-      <c r="A62" s="43">
-        <v>16</v>
-      </c>
-      <c r="B62" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="91"/>
-    </row>
-    <row r="63" spans="1:7" ht="18">
-      <c r="A63" s="43">
-        <v>17</v>
-      </c>
-      <c r="B63" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="91"/>
-    </row>
-    <row r="64" spans="1:7" ht="18">
-      <c r="A64" s="43">
-        <v>18</v>
-      </c>
-      <c r="B64" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="89"/>
-      <c r="D64" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="91"/>
-    </row>
-    <row r="65" spans="1:7" ht="18">
-      <c r="A65" s="43">
-        <v>19</v>
-      </c>
-      <c r="B65" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="91"/>
-    </row>
-    <row r="66" spans="1:7" ht="18">
-      <c r="A66" s="43">
-        <v>20</v>
-      </c>
-      <c r="B66" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
-      <c r="G66" s="91"/>
-    </row>
-    <row r="67" spans="1:7" ht="18">
-      <c r="A67" s="43">
-        <v>21</v>
-      </c>
-      <c r="B67" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="91"/>
-    </row>
-    <row r="68" spans="1:7" ht="18">
-      <c r="A68" s="43">
-        <v>22</v>
-      </c>
-      <c r="B68" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="89"/>
-      <c r="D68" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="91"/>
-    </row>
-    <row r="69" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A69" s="44">
-        <v>23</v>
-      </c>
-      <c r="B69" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="93"/>
-      <c r="D69" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9721D8-3527-41BC-89B7-BD52A60715CE}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="B2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="116" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="117"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="119"/>
-    </row>
-    <row r="4" spans="1:7" ht="18">
-      <c r="B4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="119"/>
-    </row>
-    <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="119"/>
-    </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="B8" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="B9" s="108"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A19" s="22">
-        <v>1</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A23" s="22">
-        <v>1</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="115"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A26" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A30" s="22">
-        <v>1</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A33" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="97"/>
-      <c r="G33" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A35" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" ht="18">
-      <c r="A37" s="42">
-        <v>1</v>
-      </c>
-      <c r="B37" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
-    </row>
-    <row r="38" spans="1:7" ht="18">
-      <c r="A38" s="43">
-        <v>2</v>
-      </c>
-      <c r="B38" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="91"/>
-    </row>
-    <row r="39" spans="1:7" ht="18">
-      <c r="A39" s="43">
-        <v>3</v>
-      </c>
-      <c r="B39" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-    </row>
-    <row r="40" spans="1:7" ht="18">
-      <c r="A40" s="43">
-        <v>4</v>
-      </c>
-      <c r="B40" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="91"/>
-    </row>
-    <row r="41" spans="1:7" ht="18">
-      <c r="A41" s="43">
-        <v>5</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
-    </row>
-    <row r="42" spans="1:7" ht="18">
-      <c r="A42" s="43">
-        <v>6</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="91"/>
-    </row>
-    <row r="43" spans="1:7" ht="18">
-      <c r="A43" s="43">
-        <v>7</v>
-      </c>
-      <c r="B43" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="91"/>
-    </row>
-    <row r="44" spans="1:7" ht="18">
-      <c r="A44" s="43">
-        <v>8</v>
-      </c>
-      <c r="B44" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="91"/>
-    </row>
-    <row r="45" spans="1:7" ht="18">
-      <c r="A45" s="43">
-        <v>9</v>
-      </c>
-      <c r="B45" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="91"/>
-    </row>
-    <row r="46" spans="1:7" ht="18">
-      <c r="A46" s="43">
-        <v>10</v>
-      </c>
-      <c r="B46" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="89"/>
-      <c r="D46" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="91"/>
-    </row>
-    <row r="47" spans="1:7" ht="18">
-      <c r="A47" s="43">
-        <v>11</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="91"/>
-    </row>
-    <row r="48" spans="1:7" ht="18">
-      <c r="A48" s="43">
-        <v>12</v>
-      </c>
-      <c r="B48" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="91"/>
-    </row>
-    <row r="49" spans="1:7" ht="18">
-      <c r="A49" s="43">
-        <v>13</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="91"/>
-    </row>
-    <row r="50" spans="1:7" ht="18">
-      <c r="A50" s="43">
-        <v>14</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="91"/>
-    </row>
-    <row r="51" spans="1:7" ht="18">
-      <c r="A51" s="43">
-        <v>15</v>
-      </c>
-      <c r="B51" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="91"/>
-    </row>
-    <row r="52" spans="1:7" ht="18">
-      <c r="A52" s="43">
-        <v>16</v>
-      </c>
-      <c r="B52" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="91"/>
-    </row>
-    <row r="53" spans="1:7" ht="18">
-      <c r="A53" s="43">
-        <v>17</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="91"/>
-    </row>
-    <row r="54" spans="1:7" ht="18">
-      <c r="A54" s="43">
-        <v>18</v>
-      </c>
-      <c r="B54" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="91"/>
-    </row>
-    <row r="55" spans="1:7" ht="18">
-      <c r="A55" s="43">
-        <v>19</v>
-      </c>
-      <c r="B55" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="91"/>
-    </row>
-    <row r="56" spans="1:7" ht="18">
-      <c r="A56" s="43">
-        <v>20</v>
-      </c>
-      <c r="B56" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="89"/>
-      <c r="D56" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="91"/>
-    </row>
-    <row r="57" spans="1:7" ht="18">
-      <c r="A57" s="43">
-        <v>21</v>
-      </c>
-      <c r="B57" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="91"/>
-    </row>
-    <row r="58" spans="1:7" ht="18">
-      <c r="A58" s="43">
-        <v>22</v>
-      </c>
-      <c r="B58" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="89"/>
-      <c r="D58" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="91"/>
-    </row>
-    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A59" s="44">
-        <v>23</v>
-      </c>
-      <c r="B59" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="93"/>
-      <c r="D59" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="95"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7003,22 +7006,22 @@
         <v>16</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F2" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="51" t="s">
         <v>152</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="176.4" customHeight="1">
@@ -7028,19 +7031,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>155</v>
       </c>
       <c r="H3" s="51">
         <v>45738</v>
@@ -7053,19 +7056,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>167</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>168</v>
       </c>
       <c r="H4" s="51">
         <v>45738</v>
@@ -7078,19 +7081,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>156</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>157</v>
       </c>
       <c r="E5" s="51">
         <v>45728</v>
       </c>
       <c r="F5" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="50" t="s">
         <v>158</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>159</v>
       </c>
       <c r="H5" s="51">
         <v>45731</v>
@@ -7106,16 +7109,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6" s="51">
         <v>45728</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" s="51">
         <v>45731</v>
@@ -7215,15 +7218,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100EA33B2329A96D4479E9B802CC9E5A0B5" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52d2914cf4ca7a40289baa0855df37e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7cf5160749d23804eda78bf15a97dfad" ns2:_="">
     <xsd:import namespace="bee4bc1f-3a78-4dc9-bbe8-a135db389bf0"/>
@@ -7367,6 +7361,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A301478C-C350-48F6-AEDB-F20D4C58A06D}">
   <ds:schemaRefs>
@@ -7377,14 +7380,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23181FB2-10B0-4178-ACF6-8D30481152DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D16E9DA-94B1-48D4-885F-0FDA7BBF99AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7400,4 +7395,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23181FB2-10B0-4178-ACF6-8D30481152DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/STEP2（タスク管理アプリ）/テーブル定義書/テーブル定義書.xlsx
+++ b/STEP2（タスク管理アプリ）/テーブル定義書/テーブル定義書.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7893ebd653ba6301/ドキュメント/share_kennsyu_matsunaga.yuto/STEP2（タスク管理アプリ）/テーブル定義書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7893ebd653ba6301/ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="8_{94D92B64-09D4-4894-AC4F-842C5D20B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE4980C-11E2-43C0-9384-D0CCFA86F2EF}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="8_{94D92B64-09D4-4894-AC4F-842C5D20B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D5EB89-F868-4C21-B685-E210F85F8B7C}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{94226EB6-C2D9-4891-82F9-B76C7AFFA7DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94226EB6-C2D9-4891-82F9-B76C7AFFA7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="8" r:id="rId1"/>
     <sheet name="改訂履歴" sheetId="9" r:id="rId2"/>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId3"/>
-    <sheet name="task_management.users" sheetId="5" r:id="rId4"/>
-    <sheet name="task_management.tasks" sheetId="11" r:id="rId5"/>
+    <sheet name="task_management.users" sheetId="15" r:id="rId4"/>
+    <sheet name="task_management.tasks" sheetId="14" r:id="rId5"/>
     <sheet name="task_management.task_tags" sheetId="12" r:id="rId6"/>
     <sheet name="レビュー指摘一覧" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="186">
   <si>
     <t>タスク管理アプリ</t>
     <rPh sb="3" eb="5">
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>作成日</t>
-  </si>
-  <si>
-    <t>2025/03/09</t>
   </si>
   <si>
     <t>スキーマ名</t>
@@ -250,16 +247,6 @@
     <t>デフォルト</t>
   </si>
   <si>
-    <t>ユーザー番号</t>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>user_no</t>
-  </si>
-  <si>
     <t>int(11) auto_increment</t>
   </si>
   <si>
@@ -454,9 +441,6 @@
     <t>CREATE_TIME</t>
   </si>
   <si>
-    <t>2025/03/09 10:20:12</t>
-  </si>
-  <si>
     <t>UPDATE_TIME</t>
   </si>
   <si>
@@ -485,6 +469,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>2025/03/22</t>
   </si>
   <si>
     <t>tasks</t>
@@ -503,6 +490,16 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>タスク番号</t>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_no</t>
+  </si>
+  <si>
     <t>int(11)</t>
   </si>
   <si>
@@ -529,6 +526,22 @@
     <t>description</t>
   </si>
   <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>タスク分類番号</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>tag_no</t>
+  </si>
+  <si>
     <t>タスク完了期限</t>
     <rPh sb="3" eb="7">
       <t>カンリョウキゲン</t>
@@ -573,6 +586,15 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>task_management.tasks_ibfk_2</t>
+  </si>
+  <si>
+    <t>32768</t>
   </si>
   <si>
     <t>なし</t>
@@ -594,7 +616,8 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>tag_no</t>
+    <t>int(11) auto_increment</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タスク分類名</t>
@@ -607,6 +630,9 @@
     <t>tag_name</t>
   </si>
   <si>
+    <t>2025/03/22 10:11:57</t>
+  </si>
+  <si>
     <t>指摘内容</t>
   </si>
   <si>
@@ -629,66 +655,7 @@
     <t>対応日</t>
   </si>
   <si>
-    <t>2025/3/12
-追記：
-2025/3/16</t>
-  </si>
-  <si>
-    <t>追加確認</t>
-  </si>
-  <si>
-    <t>task_management.tasksの説明</t>
-  </si>
-  <si>
-    <t>task_management.tasksの説明の文字上限は20文字であっているのか？</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>task_management.tasksの説明の文字上限を「30」文字に修正しました。</t>
-    <rPh sb="34" eb="36">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>完了</t>
-  </si>
-  <si>
-    <t>タスク期限は日付なのにタスク完了日は日時で問題ないか？</t>
-  </si>
-  <si>
-    <t>修正内容：なし。
-理由：ユーザーがタスク完了日の日時まで確認できた方が良いと思ったので、タスク完了日は日時にしています。</t>
-    <rPh sb="0" eb="4">
-      <t>シュウセイナイヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>カンリョウビ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>カンリョウビ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ニチジ</t>
-    </rPh>
+    <t>task_management.tasksのPrimary</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -702,101 +669,9 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>タスク分類番号</t>
-    <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>task_management.tasksのPrimary</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>2025/3/12
 追記：
 2025/3/16</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>分類のマスタテーブルを持つのであればIDつけて
-ID紐づけなどのほうが良いと個人的には思った。
-→実装上は問題ないのでどちらでも良い
-追記：
-自分が言っていたのは少し異なっていてIDを付けるだけではなく
-「task_management.tasks」のタスク分類名を作成したIDで持つということですね。外部キー
-最初にどちらでも良いと言っているので対応不要であれば完了にして問題ないです。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t xml:space="preserve">タスク分類テーブルに主キーの「タスク分類番号のカラム」を追加しました。
-追記：2025/3/22
-タスクテーブルの「タスク分類」を削除し、外部キーの「タスク分類番号」を追加しました。
-</t>
-    <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>追加確認</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2025/03/22</t>
-  </si>
-  <si>
-    <t>task_no</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>task_management.tasks_ibfk_2</t>
-  </si>
-  <si>
-    <t>32768</t>
-  </si>
-  <si>
-    <t>2025/03/22 10:12:02</t>
-  </si>
-  <si>
-    <t>タスク番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>2025/03/22 10:11:57</t>
-  </si>
-  <si>
-    <t>int(11) auto_increment</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>詳細画面のタスク修正,登録時のタスク名の重複チェックを削除しました。（画面設計書の詳細画面シートを修正しています。）
@@ -850,7 +725,160 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>tinyint(1)</t>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>分類のマスタテーブルを持つのであればIDつけて
+ID紐づけなどのほうが良いと個人的には思った。
+→実装上は問題ないのでどちらでも良い
+追記：
+自分が言っていたのは少し異なっていてIDを付けるだけではなく
+「task_management.tasks」のタスク分類名を作成したIDで持つということですね。外部キー
+最初にどちらでも良いと言っているので対応不要であれば完了にして問題ないです。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2025/3/12
+追記：
+2025/3/16</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">タスク分類テーブルに主キーの「タスク分類番号のカラム」を追加しました。
+追記：2025/3/22
+タスクテーブルの「タスク分類」を削除し、外部キーの「タスク分類番号」を追加しました。
+</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_management.tasksの説明</t>
+  </si>
+  <si>
+    <t>task_management.tasksの説明の文字上限は20文字であっているのか？</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_management.tasksの説明の文字上限を「30」文字に修正しました。</t>
+    <rPh sb="34" eb="36">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>タスク期限は日付なのにタスク完了日は日時で問題ないか？</t>
+  </si>
+  <si>
+    <t>修正内容：なし。
+理由：ユーザーがタスク完了日の日時まで確認できた方が良いと思ったので、タスク完了日は日時にしています。</t>
+    <rPh sb="0" eb="4">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カンリョウビ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>カンリョウビ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2025/04/19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8192</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2025/04/18 21:06:49</t>
+  </si>
+  <si>
+    <t>2025/04/19 14:19:51</t>
+  </si>
+  <si>
+    <t>2025/04/18 21:06:46</t>
+  </si>
+  <si>
+    <t>2025/04/18 21:51:47</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>task_management.users
+task_management.tasks</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>◆ユーザーテーブル
+「ユーザー番号」→「ユーザーID」に改名し、vachar(20)に変更しました。
+◆タスクテーブル
+「ユーザー番号」→「ユーザーID」に修正しました。（外部キー）</t>
+    <rPh sb="79" eb="81">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ガイブ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2177,6 +2205,48 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2235,48 +2305,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
@@ -2457,10 +2485,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2800,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4240EA-7922-4B04-908C-A4225A05EE58}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="18"/>
   <cols>
@@ -3879,7 +3903,7 @@
   <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="18"/>
@@ -3994,13 +4018,23 @@
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
     </row>
-    <row r="7" spans="1:28" ht="60.75" customHeight="1">
+    <row r="7" spans="1:28" ht="148.80000000000001" customHeight="1">
       <c r="A7" s="55"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
+      <c r="B7" s="64">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="65">
+        <v>45766</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
     </row>
@@ -4233,11 +4267,1904 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D076AA0-190C-43B9-A49F-4063A3E267B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D78C62-DD80-49AE-86C5-8B7FFAA3D771}">
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="120"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="124"/>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="122"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="E4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="122"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="124"/>
+      <c r="E5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="122"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="124"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="B7" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="B8" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="B9" s="111"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A20" s="22">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="116"/>
+      <c r="E20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A24" s="22">
+        <v>1</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A27" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A31" s="22">
+        <v>1</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="100"/>
+      <c r="G34" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" ht="18">
+      <c r="A38" s="42">
+        <v>1</v>
+      </c>
+      <c r="B38" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="102"/>
+      <c r="D38" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="104"/>
+    </row>
+    <row r="39" spans="1:7" ht="18">
+      <c r="A39" s="43">
+        <v>2</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
+    </row>
+    <row r="40" spans="1:7" ht="18">
+      <c r="A40" s="43">
+        <v>3</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
+    </row>
+    <row r="41" spans="1:7" ht="18">
+      <c r="A41" s="43">
+        <v>4</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
+    </row>
+    <row r="42" spans="1:7" ht="18">
+      <c r="A42" s="43">
+        <v>5</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
+    </row>
+    <row r="43" spans="1:7" ht="18">
+      <c r="A43" s="43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
+    </row>
+    <row r="44" spans="1:7" ht="18">
+      <c r="A44" s="43">
+        <v>7</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
+    </row>
+    <row r="45" spans="1:7" ht="18">
+      <c r="A45" s="43">
+        <v>8</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
+    </row>
+    <row r="46" spans="1:7" ht="18">
+      <c r="A46" s="43">
+        <v>9</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="92"/>
+      <c r="D46" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="94"/>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="43">
+        <v>10</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="92"/>
+      <c r="D47" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="94"/>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="43">
+        <v>11</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="92"/>
+      <c r="D48" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="94"/>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="43">
+        <v>12</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="94"/>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="43">
+        <v>13</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="92"/>
+      <c r="D50" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="43">
+        <v>14</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="92"/>
+      <c r="D51" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="43">
+        <v>15</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="43">
+        <v>16</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="43">
+        <v>17</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="92"/>
+      <c r="D54" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="94"/>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="43">
+        <v>18</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="A56" s="43">
+        <v>19</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="94"/>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="43">
+        <v>20</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="92"/>
+      <c r="D57" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="43">
+        <v>21</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="92"/>
+      <c r="D58" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="94"/>
+    </row>
+    <row r="59" spans="1:7" ht="18">
+      <c r="A59" s="43">
+        <v>22</v>
+      </c>
+      <c r="B59" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="92"/>
+      <c r="D59" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
+    </row>
+    <row r="60" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A60" s="44">
+        <v>23</v>
+      </c>
+      <c r="B60" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="96"/>
+      <c r="D60" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC422D3-D1E9-4C6C-95AF-C18AE38251C5}">
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="B2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="120"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="B3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="124"/>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="122"/>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="E4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="122"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="124"/>
+      <c r="E5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="122"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="124"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="B7" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="B8" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="B9" s="111"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>6</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="125"/>
+      <c r="E26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="78"/>
+    </row>
+    <row r="27" spans="1:7" ht="18">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="126"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="79"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="127"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="80"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A32" s="22">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="118"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A37" s="6">
+        <v>2</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A43" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="100"/>
+      <c r="G43" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:7" ht="18">
+      <c r="A47" s="42">
+        <v>1</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="102"/>
+      <c r="D47" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="104"/>
+    </row>
+    <row r="48" spans="1:7" ht="18">
+      <c r="A48" s="43">
+        <v>2</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="92"/>
+      <c r="D48" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="94"/>
+    </row>
+    <row r="49" spans="1:7" ht="18">
+      <c r="A49" s="43">
+        <v>3</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="94"/>
+    </row>
+    <row r="50" spans="1:7" ht="18">
+      <c r="A50" s="43">
+        <v>4</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="92"/>
+      <c r="D50" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
+    </row>
+    <row r="51" spans="1:7" ht="18">
+      <c r="A51" s="43">
+        <v>5</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="92"/>
+      <c r="D51" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
+    </row>
+    <row r="52" spans="1:7" ht="18">
+      <c r="A52" s="43">
+        <v>6</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
+    </row>
+    <row r="53" spans="1:7" ht="18">
+      <c r="A53" s="43">
+        <v>7</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
+    </row>
+    <row r="54" spans="1:7" ht="18">
+      <c r="A54" s="43">
+        <v>8</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="92"/>
+      <c r="D54" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="94"/>
+    </row>
+    <row r="55" spans="1:7" ht="18">
+      <c r="A55" s="43">
+        <v>9</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
+    </row>
+    <row r="56" spans="1:7" ht="18">
+      <c r="A56" s="43">
+        <v>10</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="94"/>
+    </row>
+    <row r="57" spans="1:7" ht="18">
+      <c r="A57" s="43">
+        <v>11</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="92"/>
+      <c r="D57" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
+    </row>
+    <row r="58" spans="1:7" ht="18">
+      <c r="A58" s="43">
+        <v>12</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="92"/>
+      <c r="D58" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="94"/>
+    </row>
+    <row r="59" spans="1:7" ht="18">
+      <c r="A59" s="43">
+        <v>13</v>
+      </c>
+      <c r="B59" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="92"/>
+      <c r="D59" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
+    </row>
+    <row r="60" spans="1:7" ht="18">
+      <c r="A60" s="43">
+        <v>14</v>
+      </c>
+      <c r="B60" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="92"/>
+      <c r="D60" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="93"/>
+      <c r="F60" s="93"/>
+      <c r="G60" s="94"/>
+    </row>
+    <row r="61" spans="1:7" ht="18">
+      <c r="A61" s="43">
+        <v>15</v>
+      </c>
+      <c r="B61" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="92"/>
+      <c r="D61" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="94"/>
+    </row>
+    <row r="62" spans="1:7" ht="18">
+      <c r="A62" s="43">
+        <v>16</v>
+      </c>
+      <c r="B62" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="92"/>
+      <c r="D62" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="94"/>
+    </row>
+    <row r="63" spans="1:7" ht="18">
+      <c r="A63" s="43">
+        <v>17</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="92"/>
+      <c r="D63" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="94"/>
+    </row>
+    <row r="64" spans="1:7" ht="18">
+      <c r="A64" s="43">
+        <v>18</v>
+      </c>
+      <c r="B64" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="92"/>
+      <c r="D64" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="94"/>
+    </row>
+    <row r="65" spans="1:7" ht="18">
+      <c r="A65" s="43">
+        <v>19</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="92"/>
+      <c r="D65" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="94"/>
+    </row>
+    <row r="66" spans="1:7" ht="18">
+      <c r="A66" s="43">
+        <v>20</v>
+      </c>
+      <c r="B66" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="92"/>
+      <c r="D66" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="94"/>
+    </row>
+    <row r="67" spans="1:7" ht="18">
+      <c r="A67" s="43">
+        <v>21</v>
+      </c>
+      <c r="B67" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="92"/>
+      <c r="D67" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="94"/>
+    </row>
+    <row r="68" spans="1:7" ht="18">
+      <c r="A68" s="43">
+        <v>22</v>
+      </c>
+      <c r="B68" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="92"/>
+      <c r="D68" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="94"/>
+    </row>
+    <row r="69" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A69" s="44">
+        <v>23</v>
+      </c>
+      <c r="B69" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="96"/>
+      <c r="D69" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9721D8-3527-41BC-89B7-BD52A60715CE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4257,117 +6184,117 @@
       <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="109"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="106"/>
+      <c r="G2" s="120"/>
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="B3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="110"/>
+      <c r="C3" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="124"/>
       <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="108"/>
+      <c r="F3" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="122"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="B4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="108"/>
+      <c r="F4" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="122"/>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="110"/>
+      <c r="C5" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="124"/>
       <c r="E5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="108"/>
+      <c r="G5" s="122"/>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="110"/>
+      <c r="C6" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="124"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
     </row>
     <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="97"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" thickBot="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="B8" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="B9" s="111"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4375,19 +6302,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>19</v>
@@ -4398,2514 +6325,643 @@
         <v>1</v>
       </c>
       <c r="B14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="F14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>51</v>
-      </c>
       <c r="G14" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A16" s="6">
-        <v>3</v>
-      </c>
-      <c r="B16" s="26" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12" t="s">
+      <c r="F18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A19" s="22">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="116"/>
+      <c r="E19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="19" t="s">
+      <c r="B22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A23" s="22">
+        <v>1</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A20" s="22">
+      <c r="C23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A26" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A30" s="22">
         <v>1</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="12" t="s">
+      <c r="B30" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A33" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A24" s="22">
+      <c r="B33" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="100"/>
+      <c r="G33" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="1:7" ht="18">
+      <c r="A37" s="42">
         <v>1</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="104"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A26" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A27" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A29" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A31" s="22">
-        <v>1</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A33" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A34" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="101" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="C37" s="102"/>
+      <c r="D37" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="33" t="s">
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="104"/>
+    </row>
+    <row r="38" spans="1:7" ht="18">
+      <c r="A38" s="43">
+        <v>2</v>
+      </c>
+      <c r="B38" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" ht="18">
-      <c r="A38" s="42">
-        <v>1</v>
-      </c>
-      <c r="B38" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="120"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
     </row>
     <row r="39" spans="1:7" ht="18">
       <c r="A39" s="43">
-        <v>2</v>
-      </c>
-      <c r="B39" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
+        <v>3</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
     </row>
     <row r="40" spans="1:7" ht="18">
       <c r="A40" s="43">
-        <v>3</v>
-      </c>
-      <c r="B40" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
     </row>
     <row r="41" spans="1:7" ht="18">
       <c r="A41" s="43">
-        <v>4</v>
-      </c>
-      <c r="B41" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
     </row>
     <row r="42" spans="1:7" ht="18">
       <c r="A42" s="43">
-        <v>5</v>
-      </c>
-      <c r="B42" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
     </row>
     <row r="43" spans="1:7" ht="18">
       <c r="A43" s="43">
-        <v>6</v>
-      </c>
-      <c r="B43" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
     </row>
     <row r="44" spans="1:7" ht="18">
       <c r="A44" s="43">
-        <v>7</v>
-      </c>
-      <c r="B44" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
     </row>
     <row r="45" spans="1:7" ht="18">
       <c r="A45" s="43">
-        <v>8</v>
-      </c>
-      <c r="B45" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+        <v>9</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
     </row>
     <row r="46" spans="1:7" ht="18">
       <c r="A46" s="43">
-        <v>9</v>
-      </c>
-      <c r="B46" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="92"/>
+      <c r="D46" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="94"/>
     </row>
     <row r="47" spans="1:7" ht="18">
       <c r="A47" s="43">
-        <v>10</v>
-      </c>
-      <c r="B47" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
+        <v>11</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="92"/>
+      <c r="D47" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="94"/>
     </row>
     <row r="48" spans="1:7" ht="18">
       <c r="A48" s="43">
-        <v>11</v>
-      </c>
-      <c r="B48" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
+        <v>12</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="92"/>
+      <c r="D48" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="94"/>
     </row>
     <row r="49" spans="1:7" ht="18">
       <c r="A49" s="43">
-        <v>12</v>
-      </c>
-      <c r="B49" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="116"/>
+        <v>13</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="92"/>
+      <c r="D49" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="94"/>
     </row>
     <row r="50" spans="1:7" ht="18">
       <c r="A50" s="43">
-        <v>13</v>
-      </c>
-      <c r="B50" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="116"/>
+        <v>14</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="92"/>
+      <c r="D50" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
     </row>
     <row r="51" spans="1:7" ht="18">
       <c r="A51" s="43">
-        <v>14</v>
-      </c>
-      <c r="B51" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+        <v>15</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="92"/>
+      <c r="D51" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
     </row>
     <row r="52" spans="1:7" ht="18">
       <c r="A52" s="43">
-        <v>15</v>
-      </c>
-      <c r="B52" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="116"/>
+        <v>16</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
     </row>
     <row r="53" spans="1:7" ht="18">
       <c r="A53" s="43">
-        <v>16</v>
-      </c>
-      <c r="B53" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="116"/>
+        <v>17</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
     </row>
     <row r="54" spans="1:7" ht="18">
       <c r="A54" s="43">
-        <v>17</v>
-      </c>
-      <c r="B54" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="116"/>
+        <v>18</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="92"/>
+      <c r="D54" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="94"/>
     </row>
     <row r="55" spans="1:7" ht="18">
       <c r="A55" s="43">
-        <v>18</v>
-      </c>
-      <c r="B55" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
+        <v>19</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
     </row>
     <row r="56" spans="1:7" ht="18">
       <c r="A56" s="43">
-        <v>19</v>
-      </c>
-      <c r="B56" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="116"/>
+        <v>20</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="94"/>
     </row>
     <row r="57" spans="1:7" ht="18">
       <c r="A57" s="43">
-        <v>20</v>
-      </c>
-      <c r="B57" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="116"/>
+        <v>21</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="92"/>
+      <c r="D57" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
     </row>
     <row r="58" spans="1:7" ht="18">
       <c r="A58" s="43">
-        <v>21</v>
-      </c>
-      <c r="B58" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="116"/>
-    </row>
-    <row r="59" spans="1:7" ht="18">
-      <c r="A59" s="43">
         <v>22</v>
       </c>
-      <c r="B59" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
-    </row>
-    <row r="60" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A60" s="44">
+      <c r="B58" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="92"/>
+      <c r="D58" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="94"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1">
+      <c r="A59" s="44">
         <v>23</v>
       </c>
-      <c r="B60" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="122"/>
-      <c r="D60" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="124"/>
+      <c r="B59" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="96"/>
+      <c r="D59" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:G58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB05A67-AE7F-42D6-ABD3-FAFA377BA98E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="B2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="106"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:7" ht="18">
-      <c r="B4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="108"/>
-    </row>
-    <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="108"/>
-    </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="B8" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="B9" s="97"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
-        <v>4</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3">
-        <v>5</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
-        <v>7</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A22" s="6">
-        <v>9</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="125"/>
-      <c r="E26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="78"/>
-    </row>
-    <row r="27" spans="1:7" ht="18">
-      <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="79"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A28" s="6">
-        <v>3</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="121" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="80"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A32" s="22">
-        <v>1</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="104"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="9">
-        <v>1</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A37" s="6">
-        <v>2</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A40" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A42" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A43" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="112"/>
-      <c r="G43" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A45" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" spans="1:7" ht="18">
-      <c r="A47" s="42">
-        <v>1</v>
-      </c>
-      <c r="B47" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="118"/>
-      <c r="D47" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="120"/>
-    </row>
-    <row r="48" spans="1:7" ht="18">
-      <c r="A48" s="43">
-        <v>2</v>
-      </c>
-      <c r="B48" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
-    </row>
-    <row r="49" spans="1:7" ht="18">
-      <c r="A49" s="43">
-        <v>3</v>
-      </c>
-      <c r="B49" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="116"/>
-    </row>
-    <row r="50" spans="1:7" ht="18">
-      <c r="A50" s="43">
-        <v>4</v>
-      </c>
-      <c r="B50" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="116"/>
-    </row>
-    <row r="51" spans="1:7" ht="18">
-      <c r="A51" s="43">
-        <v>5</v>
-      </c>
-      <c r="B51" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
-    </row>
-    <row r="52" spans="1:7" ht="18">
-      <c r="A52" s="43">
-        <v>6</v>
-      </c>
-      <c r="B52" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="116"/>
-    </row>
-    <row r="53" spans="1:7" ht="18">
-      <c r="A53" s="43">
-        <v>7</v>
-      </c>
-      <c r="B53" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="116"/>
-    </row>
-    <row r="54" spans="1:7" ht="18">
-      <c r="A54" s="43">
-        <v>8</v>
-      </c>
-      <c r="B54" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="116"/>
-    </row>
-    <row r="55" spans="1:7" ht="18">
-      <c r="A55" s="43">
-        <v>9</v>
-      </c>
-      <c r="B55" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
-    </row>
-    <row r="56" spans="1:7" ht="18">
-      <c r="A56" s="43">
-        <v>10</v>
-      </c>
-      <c r="B56" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="116"/>
-    </row>
-    <row r="57" spans="1:7" ht="18">
-      <c r="A57" s="43">
-        <v>11</v>
-      </c>
-      <c r="B57" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="116"/>
-    </row>
-    <row r="58" spans="1:7" ht="18">
-      <c r="A58" s="43">
-        <v>12</v>
-      </c>
-      <c r="B58" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="113" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="116"/>
-    </row>
-    <row r="59" spans="1:7" ht="18">
-      <c r="A59" s="43">
-        <v>13</v>
-      </c>
-      <c r="B59" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
-    </row>
-    <row r="60" spans="1:7" ht="18">
-      <c r="A60" s="43">
-        <v>14</v>
-      </c>
-      <c r="B60" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="114"/>
-      <c r="D60" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="116"/>
-    </row>
-    <row r="61" spans="1:7" ht="18">
-      <c r="A61" s="43">
-        <v>15</v>
-      </c>
-      <c r="B61" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="114"/>
-      <c r="D61" s="113" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="116"/>
-    </row>
-    <row r="62" spans="1:7" ht="18">
-      <c r="A62" s="43">
-        <v>16</v>
-      </c>
-      <c r="B62" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="114"/>
-      <c r="D62" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="115"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="116"/>
-    </row>
-    <row r="63" spans="1:7" ht="18">
-      <c r="A63" s="43">
-        <v>17</v>
-      </c>
-      <c r="B63" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="114"/>
-      <c r="D63" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="115"/>
-      <c r="F63" s="115"/>
-      <c r="G63" s="116"/>
-    </row>
-    <row r="64" spans="1:7" ht="18">
-      <c r="A64" s="43">
-        <v>18</v>
-      </c>
-      <c r="B64" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="114"/>
-      <c r="D64" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" s="115"/>
-      <c r="F64" s="115"/>
-      <c r="G64" s="116"/>
-    </row>
-    <row r="65" spans="1:7" ht="18">
-      <c r="A65" s="43">
-        <v>19</v>
-      </c>
-      <c r="B65" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="114"/>
-      <c r="D65" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="116"/>
-    </row>
-    <row r="66" spans="1:7" ht="18">
-      <c r="A66" s="43">
-        <v>20</v>
-      </c>
-      <c r="B66" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="114"/>
-      <c r="D66" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="116"/>
-    </row>
-    <row r="67" spans="1:7" ht="18">
-      <c r="A67" s="43">
-        <v>21</v>
-      </c>
-      <c r="B67" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="114"/>
-      <c r="D67" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="115"/>
-      <c r="F67" s="115"/>
-      <c r="G67" s="116"/>
-    </row>
-    <row r="68" spans="1:7" ht="18">
-      <c r="A68" s="43">
-        <v>22</v>
-      </c>
-      <c r="B68" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="114"/>
-      <c r="D68" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
-      <c r="G68" s="116"/>
-    </row>
-    <row r="69" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A69" s="44">
-        <v>23</v>
-      </c>
-      <c r="B69" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="122"/>
-      <c r="D69" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="123"/>
-      <c r="F69" s="123"/>
-      <c r="G69" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:G68"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9721D8-3527-41BC-89B7-BD52A60715CE}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.69921875" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="B2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="106"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="B3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="108"/>
-    </row>
-    <row r="4" spans="1:7" ht="18">
-      <c r="B4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="108"/>
-    </row>
-    <row r="5" spans="1:7" ht="18">
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="108"/>
-    </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
-    </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="B7" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="B8" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
-      <c r="B9" s="97"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A19" s="22">
-        <v>1</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A23" s="22">
-        <v>1</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="104"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A26" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A30" s="22">
-        <v>1</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A33" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="111" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="112"/>
-      <c r="G33" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A35" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" ht="18">
-      <c r="A37" s="42">
-        <v>1</v>
-      </c>
-      <c r="B37" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="120"/>
-    </row>
-    <row r="38" spans="1:7" ht="18">
-      <c r="A38" s="43">
-        <v>2</v>
-      </c>
-      <c r="B38" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
-    </row>
-    <row r="39" spans="1:7" ht="18">
-      <c r="A39" s="43">
-        <v>3</v>
-      </c>
-      <c r="B39" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
-    </row>
-    <row r="40" spans="1:7" ht="18">
-      <c r="A40" s="43">
-        <v>4</v>
-      </c>
-      <c r="B40" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
-    </row>
-    <row r="41" spans="1:7" ht="18">
-      <c r="A41" s="43">
-        <v>5</v>
-      </c>
-      <c r="B41" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-    </row>
-    <row r="42" spans="1:7" ht="18">
-      <c r="A42" s="43">
-        <v>6</v>
-      </c>
-      <c r="B42" s="113" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
-    </row>
-    <row r="43" spans="1:7" ht="18">
-      <c r="A43" s="43">
-        <v>7</v>
-      </c>
-      <c r="B43" s="113" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="116"/>
-    </row>
-    <row r="44" spans="1:7" ht="18">
-      <c r="A44" s="43">
-        <v>8</v>
-      </c>
-      <c r="B44" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="116"/>
-    </row>
-    <row r="45" spans="1:7" ht="18">
-      <c r="A45" s="43">
-        <v>9</v>
-      </c>
-      <c r="B45" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
-    </row>
-    <row r="46" spans="1:7" ht="18">
-      <c r="A46" s="43">
-        <v>10</v>
-      </c>
-      <c r="B46" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="116"/>
-    </row>
-    <row r="47" spans="1:7" ht="18">
-      <c r="A47" s="43">
-        <v>11</v>
-      </c>
-      <c r="B47" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="116"/>
-    </row>
-    <row r="48" spans="1:7" ht="18">
-      <c r="A48" s="43">
-        <v>12</v>
-      </c>
-      <c r="B48" s="113" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
-    </row>
-    <row r="49" spans="1:7" ht="18">
-      <c r="A49" s="43">
-        <v>13</v>
-      </c>
-      <c r="B49" s="113" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="116"/>
-    </row>
-    <row r="50" spans="1:7" ht="18">
-      <c r="A50" s="43">
-        <v>14</v>
-      </c>
-      <c r="B50" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="116"/>
-    </row>
-    <row r="51" spans="1:7" ht="18">
-      <c r="A51" s="43">
-        <v>15</v>
-      </c>
-      <c r="B51" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
-    </row>
-    <row r="52" spans="1:7" ht="18">
-      <c r="A52" s="43">
-        <v>16</v>
-      </c>
-      <c r="B52" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="116"/>
-    </row>
-    <row r="53" spans="1:7" ht="18">
-      <c r="A53" s="43">
-        <v>17</v>
-      </c>
-      <c r="B53" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="116"/>
-    </row>
-    <row r="54" spans="1:7" ht="18">
-      <c r="A54" s="43">
-        <v>18</v>
-      </c>
-      <c r="B54" s="113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="113" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="116"/>
-    </row>
-    <row r="55" spans="1:7" ht="18">
-      <c r="A55" s="43">
-        <v>19</v>
-      </c>
-      <c r="B55" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="116"/>
-    </row>
-    <row r="56" spans="1:7" ht="18">
-      <c r="A56" s="43">
-        <v>20</v>
-      </c>
-      <c r="B56" s="113" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="116"/>
-    </row>
-    <row r="57" spans="1:7" ht="18">
-      <c r="A57" s="43">
-        <v>21</v>
-      </c>
-      <c r="B57" s="113" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="116"/>
-    </row>
-    <row r="58" spans="1:7" ht="18">
-      <c r="A58" s="43">
-        <v>22</v>
-      </c>
-      <c r="B58" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" s="114"/>
-      <c r="D58" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="116"/>
-    </row>
-    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1">
-      <c r="A59" s="44">
-        <v>23</v>
-      </c>
-      <c r="B59" s="121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="121" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="C5:D5"/>
@@ -6919,48 +6975,12 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6976,7 +6996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EED2EAC-BC12-4DF6-9882-81258C8B5875}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
   <cols>
@@ -7006,22 +7028,22 @@
         <v>16</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="176.4" customHeight="1">
@@ -7031,19 +7053,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="50" t="s">
         <v>163</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>154</v>
       </c>
       <c r="H3" s="51">
         <v>45738</v>
@@ -7056,19 +7078,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>165</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>164</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>166</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H4" s="51">
         <v>45738</v>
@@ -7081,19 +7103,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E5" s="51">
         <v>45728</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H5" s="51">
         <v>45731</v>
@@ -7109,16 +7131,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E6" s="51">
         <v>45728</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H6" s="51">
         <v>45731</v>
@@ -7212,9 +7234,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7362,19 +7387,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A301478C-C350-48F6-AEDB-F20D4C58A06D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23181FB2-10B0-4178-ACF6-8D30481152DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7398,9 +7419,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23181FB2-10B0-4178-ACF6-8D30481152DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A301478C-C350-48F6-AEDB-F20D4C58A06D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>